--- a/my_rank/蚂蚁金服.xlsx
+++ b/my_rank/蚂蚁金服.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1617</v>
+        <v>3229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6001635322976288</v>
+        <v>0.5197493870879869</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1418</v>
+        <v>2555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.437448896156991</v>
+        <v>0.3361481885044947</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1836</v>
+        <v>3843</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7792313982011447</v>
+        <v>0.6870062653228003</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1492</v>
+        <v>2766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4979558462796402</v>
+        <v>0.3936257150640153</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2068</v>
+        <v>4828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9689288634505315</v>
+        <v>0.9553255243802778</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1475</v>
+        <v>2256</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4840556009811938</v>
+        <v>0.2546989921002452</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>883</v>
+        <v>1321</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1807</v>
+        <v>3135</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7555192150449714</v>
+        <v>0.4941432852083901</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1208</v>
+        <v>2004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2657399836467703</v>
+        <v>0.1860528466357941</v>
       </c>
       <c r="E10" t="n">
         <v>37</v>
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1419</v>
+        <v>2578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4382665576451349</v>
+        <v>0.3424135113048216</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1824</v>
+        <v>3898</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7694194603434178</v>
+        <v>0.701988558975756</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1711</v>
+        <v>3321</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6770237121831562</v>
+        <v>0.5448106782892945</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1611</v>
+        <v>2932</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5952575633687653</v>
+        <v>0.4388450013620267</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1526</v>
+        <v>2636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5257563368765331</v>
+        <v>0.3582130209752111</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1744</v>
+        <v>3453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7040065412919051</v>
+        <v>0.5807681830563879</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1644</v>
+        <v>2708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6222403924775143</v>
+        <v>0.3778262053936257</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1539</v>
+        <v>2999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5363859362224039</v>
+        <v>0.4570961590847181</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1832</v>
+        <v>3122</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7759607522485691</v>
+        <v>0.4906020157995097</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1422</v>
+        <v>2599</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4407195421095667</v>
+        <v>0.3481340234268592</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1874</v>
+        <v>4001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8103025347506132</v>
+        <v>0.7300463089076545</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1430</v>
+        <v>2455</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4472608340147179</v>
+        <v>0.3089076545900299</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1643</v>
+        <v>3105</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6214227309893704</v>
+        <v>0.4859711250340507</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1688</v>
+        <v>3348</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6582174979558463</v>
+        <v>0.5521656224461999</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1354</v>
+        <v>2404</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3851185609157809</v>
+        <v>0.295014982293653</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1544</v>
+        <v>3039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5404742436631235</v>
+        <v>0.467992372650504</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1512</v>
+        <v>2535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5143090760425184</v>
+        <v>0.3307000817216018</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1680</v>
+        <v>3441</v>
       </c>
       <c r="D28" t="n">
-        <v>0.651676206050695</v>
+        <v>0.5774993189866522</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1868</v>
+        <v>3890</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8053965658217498</v>
+        <v>0.6998093162625988</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1766</v>
+        <v>3269</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7219950940310711</v>
+        <v>0.5306456006537729</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1190</v>
+        <v>2095</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2510220768601799</v>
+        <v>0.210841732497957</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1467</v>
+        <v>2492</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4775143090760425</v>
+        <v>0.3189866521383819</v>
       </c>
       <c r="E32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2106</v>
+        <v>4992</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1264</v>
+        <v>2210</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3115290269828291</v>
+        <v>0.2421683464995914</v>
       </c>
       <c r="E34" t="n">
         <v>35</v>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2059</v>
+        <v>4821</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9615699100572364</v>
+        <v>0.9534186870062653</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -1112,10 +1112,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1526</v>
+        <v>2753</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5257563368765331</v>
+        <v>0.3900844456551348</v>
       </c>
       <c r="E36" t="n">
         <v>24</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1966</v>
+        <v>4173</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8855273916598528</v>
+        <v>0.7769000272405339</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1244</v>
+        <v>1664</v>
       </c>
       <c r="D38" t="n">
-        <v>0.295175797219951</v>
+        <v>0.093435031326614</v>
       </c>
       <c r="E38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1834</v>
+        <v>3814</v>
       </c>
       <c r="D39" t="n">
-        <v>0.777596075224857</v>
+        <v>0.6791065104876055</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1959</v>
+        <v>4382</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8798037612428454</v>
+        <v>0.8338327431217651</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
